--- a/25-26/Invoices 25-26/19 BK019 August 25-26 KGM STONE COMPANY LIMITED (khoa)Galaxy Mix Line Polish (RJSL)/Invoice template, PO, Packing List, Proforma invoice.xlsx
+++ b/25-26/Invoices 25-26/19 BK019 August 25-26 KGM STONE COMPANY LIMITED (khoa)Galaxy Mix Line Polish (RJSL)/Invoice template, PO, Packing List, Proforma invoice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B K EXPORTS\BK Exports bills\25-26\Invoices 25-26\19 BK019 July 25-26 KGM STONE COMPANY LIMITED (khoa)Galaxy Mix Line Polish (RJSL)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\B K EXPORTS\BK Exports bills\25-26\Invoices 25-26\19 BK019 August 25-26 KGM STONE COMPANY LIMITED (khoa)Galaxy Mix Line Polish (RJSL)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0C1AE1-479E-4706-9FFB-989B06B4AE7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FD5884-65B8-456E-8FC3-A27B57D1F918}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="167">
   <si>
     <t>financial year</t>
   </si>
@@ -264,12 +264,6 @@
   </si>
   <si>
     <t>Net Weight</t>
-  </si>
-  <si>
-    <t>28000 kgs</t>
-  </si>
-  <si>
-    <t>27500 kgs</t>
   </si>
   <si>
     <t>Amount in Words:</t>
@@ -631,6 +625,18 @@
   <si>
     <t>Five Thousand Seven Hundred Ninety Four Dollars and Eighty Four Cent</t>
   </si>
+  <si>
+    <t>Sq meter</t>
+  </si>
+  <si>
+    <t>Gross (KG)</t>
+  </si>
+  <si>
+    <t>Net (KG)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -643,11 +649,18 @@
     <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="[$-14009]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -826,7 +839,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1208,443 +1221,505 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2093,7 +2168,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="65" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -2137,7 +2212,7 @@
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3147,7 +3222,7 @@
         <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -3179,7 +3254,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -3309,7 +3384,7 @@
         <v>56</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -3341,7 +3416,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -3705,7 +3780,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -3737,7 +3812,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -3768,8 +3843,8 @@
       <c r="A21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="74" t="s">
-        <v>155</v>
+      <c r="B21" s="73" t="s">
+        <v>153</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -3800,8 +3875,8 @@
       <c r="A22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="74" t="s">
-        <v>155</v>
+      <c r="B22" s="73" t="s">
+        <v>153</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -3833,7 +3908,7 @@
         <v>33</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -3865,7 +3940,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -3926,7 +4001,7 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B26" s="15">
         <v>298.88</v>
@@ -3958,7 +4033,7 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B27" s="15">
         <v>13.5</v>
@@ -3990,7 +4065,7 @@
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B28" s="15">
         <v>124.29</v>
@@ -4022,7 +4097,7 @@
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B29" s="15">
         <v>22.2</v>
@@ -31347,8 +31422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31367,7 +31442,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="113" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="79"/>
@@ -31381,16 +31456,16 @@
       <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -31399,16 +31474,16 @@
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="85" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="86"/>
-      <c r="J3" s="82"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="92"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -31417,18 +31492,18 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="20"/>
-      <c r="E4" s="110" t="str">
+      <c r="E4" s="114" t="str">
         <f>'input data'!B3</f>
         <v>BK019/25-26</v>
       </c>
-      <c r="F4" s="92"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="111">
+      <c r="F4" s="87"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="115">
         <f>'input data'!B4</f>
         <v>45874</v>
       </c>
-      <c r="I4" s="112"/>
-      <c r="J4" s="113"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="117"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
@@ -31437,16 +31512,16 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="85" t="s">
+      <c r="F5" s="91"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="82"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
@@ -31455,15 +31530,15 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="107" t="str">
+      <c r="E6" s="84"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="118" t="str">
         <f>'input data'!B5</f>
         <v>AD2403250650768</v>
       </c>
-      <c r="I6" s="92"/>
-      <c r="J6" s="90"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
@@ -31472,16 +31547,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="85" t="s">
+      <c r="F7" s="91"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="86"/>
-      <c r="J7" s="82"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="92"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
@@ -31490,16 +31565,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="106" t="s">
+      <c r="E8" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="108" t="s">
+      <c r="F8" s="87"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="92"/>
-      <c r="J8" s="90"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -31508,16 +31583,16 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="85" t="s">
+      <c r="F9" s="91"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="86"/>
-      <c r="J9" s="82"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="92"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -31526,69 +31601,69 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="105" t="str">
+      <c r="E10" s="107" t="str">
         <f>'input data'!B14</f>
         <v>Loose packing</v>
       </c>
       <c r="F10" s="79"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="105" t="str">
+      <c r="G10" s="94"/>
+      <c r="H10" s="107" t="str">
         <f>'input data'!B13 &amp; " " &amp; 'input data'!B15</f>
         <v>1 FCL</v>
       </c>
       <c r="I10" s="79"/>
-      <c r="J10" s="84"/>
+      <c r="J10" s="94"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="103" t="s">
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="95"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="94" t="s">
+      <c r="F11" s="96"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="95"/>
-      <c r="J11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="97"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="100" t="str">
+      <c r="A12" s="122" t="str">
         <f>'input data'!B6</f>
         <v>To the Order</v>
       </c>
       <c r="B12" s="79"/>
       <c r="C12" s="79"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="101" t="str">
+      <c r="D12" s="94"/>
+      <c r="E12" s="123" t="str">
         <f>'input data'!B16</f>
         <v>CNF</v>
       </c>
       <c r="F12" s="79"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="97" t="str">
+      <c r="G12" s="94"/>
+      <c r="H12" s="120" t="str">
         <f>'input data'!B17</f>
         <v>100% Against Documents</v>
       </c>
       <c r="I12" s="79"/>
-      <c r="J12" s="84"/>
+      <c r="J12" s="94"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="90"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="85"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -31597,17 +31672,17 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="98" t="s">
+      <c r="E14" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="82"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="92"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="104" t="str">
+      <c r="A15" s="125" t="str">
         <f>'input data'!B7</f>
         <v>KGM STONE COMPANY LIMITED
 Lot F12 Dien Bien Phu, Quy Nhon Dong Ward, Gia Lai Province, Vietnam
@@ -31617,337 +31692,366 @@
       </c>
       <c r="B15" s="79"/>
       <c r="C15" s="79"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="99"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="79"/>
       <c r="G15" s="79"/>
       <c r="H15" s="79"/>
       <c r="I15" s="79"/>
-      <c r="J15" s="84"/>
+      <c r="J15" s="94"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="99"/>
+      <c r="A16" s="93"/>
       <c r="B16" s="79"/>
       <c r="C16" s="79"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="99"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="93"/>
       <c r="F16" s="79"/>
       <c r="G16" s="79"/>
       <c r="H16" s="79"/>
       <c r="I16" s="79"/>
-      <c r="J16" s="84"/>
+      <c r="J16" s="94"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="99"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="79"/>
       <c r="C17" s="79"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="99"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="79"/>
       <c r="G17" s="79"/>
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
-      <c r="J17" s="84"/>
+      <c r="J17" s="94"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="99"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="79"/>
       <c r="C18" s="79"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="99"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="79"/>
       <c r="G18" s="79"/>
       <c r="H18" s="79"/>
       <c r="I18" s="79"/>
-      <c r="J18" s="84"/>
+      <c r="J18" s="94"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="99"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="79"/>
       <c r="C19" s="79"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="99"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="79"/>
       <c r="G19" s="79"/>
       <c r="H19" s="79"/>
       <c r="I19" s="79"/>
-      <c r="J19" s="84"/>
+      <c r="J19" s="94"/>
     </row>
     <row r="20" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="90"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="85"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="81" t="s">
+      <c r="B21" s="92"/>
+      <c r="C21" s="126" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="82"/>
-      <c r="E21" s="81" t="s">
+      <c r="D21" s="92"/>
+      <c r="E21" s="126" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="86"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="81" t="s">
+      <c r="F21" s="91"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="86"/>
-      <c r="J21" s="82"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="92"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="88" t="str">
+      <c r="B22" s="94"/>
+      <c r="C22" s="129" t="str">
         <f>'input data'!B19</f>
         <v>CHENNAI</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="91" t="s">
+      <c r="D22" s="94"/>
+      <c r="E22" s="130" t="s">
         <v>64</v>
       </c>
       <c r="F22" s="79"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="91" t="str">
+      <c r="G22" s="94"/>
+      <c r="H22" s="130" t="str">
         <f>'input data'!B23</f>
         <v>VIETNAM</v>
       </c>
       <c r="I22" s="79"/>
-      <c r="J22" s="84"/>
+      <c r="J22" s="94"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="93"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="90"/>
+      <c r="A23" s="131"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="85"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="87" t="s">
+      <c r="B24" s="92"/>
+      <c r="C24" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="85" t="s">
+      <c r="D24" s="92"/>
+      <c r="E24" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="86"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="87" t="s">
+      <c r="F24" s="91"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="86"/>
-      <c r="J24" s="82"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="92"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="106"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="108" t="str">
+      <c r="A25" s="84"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86" t="str">
         <f>'input data'!B20</f>
         <v>CHENNAI</v>
       </c>
-      <c r="D25" s="90"/>
-      <c r="E25" s="108" t="str">
+      <c r="D25" s="85"/>
+      <c r="E25" s="86" t="str">
         <f>'input data'!B21</f>
         <v>QUY NHON</v>
       </c>
-      <c r="F25" s="92"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="108" t="str">
+      <c r="F25" s="87"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="86" t="str">
         <f>'input data'!B22</f>
         <v>QUY NHON</v>
       </c>
-      <c r="I25" s="92"/>
-      <c r="J25" s="90"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="85"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="128" t="s">
+      <c r="A26" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="130" t="s">
+      <c r="B26" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="128" t="s">
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="85" t="s">
+      <c r="F26" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="82"/>
+      <c r="G26" s="92"/>
       <c r="H26" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="85" t="s">
+      <c r="I26" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="82"/>
+      <c r="J26" s="92"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="129"/>
-      <c r="B27" s="99"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="93"/>
       <c r="C27" s="79"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="108" t="s">
+      <c r="D27" s="94"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="90"/>
+      <c r="G27" s="85"/>
       <c r="H27" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="I27" s="108" t="s">
+      <c r="I27" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="90"/>
+      <c r="J27" s="85"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27">
         <v>1</v>
       </c>
-      <c r="B28" s="115" t="str">
+      <c r="B28" s="95" t="str">
         <f>'input data'!B18</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
-      <c r="C28" s="95"/>
-      <c r="D28" s="96"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="97"/>
       <c r="E28" s="28">
         <v>68022390</v>
       </c>
-      <c r="F28" s="116">
+      <c r="F28" s="104">
         <f>'input data'!B26</f>
         <v>298.88</v>
       </c>
-      <c r="G28" s="96"/>
-      <c r="H28" s="71">
+      <c r="G28" s="97"/>
+      <c r="H28" s="70">
         <v>11.82</v>
       </c>
-      <c r="I28" s="124">
+      <c r="I28" s="112">
         <f>H28*F28</f>
         <v>3532.7615999999998</v>
       </c>
-      <c r="J28" s="96"/>
+      <c r="J28" s="97"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="75">
+      <c r="A29" s="74">
         <v>2</v>
       </c>
-      <c r="B29" s="115" t="s">
+      <c r="B29" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="95"/>
-      <c r="D29" s="96"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="97"/>
       <c r="E29" s="28">
         <v>68022390</v>
       </c>
-      <c r="F29" s="106">
+      <c r="F29" s="84">
         <f>'input data'!B28</f>
         <v>124.29</v>
       </c>
-      <c r="G29" s="117"/>
-      <c r="H29" s="76">
+      <c r="G29" s="105"/>
+      <c r="H29" s="75">
         <v>18.2</v>
       </c>
-      <c r="I29" s="123">
+      <c r="I29" s="100">
         <f>H29*F29</f>
         <v>2262.078</v>
       </c>
-      <c r="J29" s="96"/>
+      <c r="J29" s="97"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
+      <c r="B30" s="193"/>
+      <c r="C30" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>73</v>
+      <c r="D30" s="77" t="s">
+        <v>163</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>74</v>
+      <c r="E30" s="77" t="s">
+        <v>164</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="131" t="s">
-        <v>151</v>
+      <c r="F30" s="193" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="194"/>
+      <c r="H30" s="98" t="s">
+        <v>149</v>
       </c>
       <c r="I30" s="69"/>
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="105" t="str">
+      <c r="A31" s="107" t="str">
         <f>UPPER('input data'!B24)</f>
         <v>CSNU2182753</v>
       </c>
-      <c r="B31" s="79"/>
-      <c r="C31" s="3">
-        <f>'input data'!B25</f>
+      <c r="B31" s="190"/>
+      <c r="C31" s="77">
+        <v>319</v>
+      </c>
+      <c r="D31" s="77">
+        <v>298.88</v>
+      </c>
+      <c r="E31" s="77">
+        <v>22400</v>
+      </c>
+      <c r="F31" s="185">
+        <v>22050</v>
+      </c>
+      <c r="G31" s="186"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="107" t="str">
+        <f>UPPER('input data'!B24)</f>
+        <v>CSNU2182753</v>
+      </c>
+      <c r="B32" s="190"/>
+      <c r="C32" s="77">
+        <v>66</v>
+      </c>
+      <c r="D32" s="77">
+        <v>124.29</v>
+      </c>
+      <c r="E32" s="191">
+        <v>5600</v>
+      </c>
+      <c r="F32" s="165">
+        <f>E32-150</f>
+        <v>5450</v>
+      </c>
+      <c r="G32" s="192"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="187" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="188"/>
+      <c r="C33" s="47">
+        <f>C31+C32</f>
         <v>385</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>75</v>
+      <c r="D33" s="47">
+        <f>D31+D32</f>
+        <v>423.17</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>76</v>
+      <c r="E33" s="47">
+        <f>E31+E32</f>
+        <v>28000</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="118"/>
-      <c r="G32" s="119"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="123">
+      <c r="F33" s="188">
+        <f>F31+F32</f>
+        <v>27500</v>
+      </c>
+      <c r="G33" s="189"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="100">
         <v>0</v>
       </c>
-      <c r="J33" s="96"/>
+      <c r="J33" s="97"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -31955,52 +32059,52 @@
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="122">
+      <c r="H34" s="71"/>
+      <c r="I34" s="110">
         <f>SUM(I28:J33)</f>
         <v>5794.8395999999993</v>
       </c>
-      <c r="J34" s="82"/>
+      <c r="J34" s="92"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="125" t="s">
-        <v>164</v>
+      <c r="A35" s="81" t="s">
+        <v>162</v>
       </c>
-      <c r="B35" s="126"/>
-      <c r="C35" s="126"/>
-      <c r="D35" s="126"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="126"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="90"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="85"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="120" t="s">
+      <c r="A36" s="108" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="111" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="92"/>
+    </row>
+    <row r="37" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="109" t="s">
         <v>78</v>
-      </c>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="82"/>
-    </row>
-    <row r="37" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="121" t="s">
-        <v>80</v>
       </c>
       <c r="B37" s="79"/>
       <c r="C37" s="79"/>
-      <c r="D37" s="84"/>
+      <c r="D37" s="94"/>
       <c r="E37" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -32009,10 +32113,10 @@
       <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="99"/>
+      <c r="A38" s="93"/>
       <c r="B38" s="79"/>
       <c r="C38" s="79"/>
-      <c r="D38" s="84"/>
+      <c r="D38" s="94"/>
       <c r="E38" s="19"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -32021,12 +32125,12 @@
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="114" t="s">
-        <v>82</v>
+      <c r="A39" s="101" t="s">
+        <v>80</v>
       </c>
       <c r="B39" s="79"/>
       <c r="C39" s="79"/>
-      <c r="D39" s="84"/>
+      <c r="D39" s="94"/>
       <c r="E39" s="19"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -32035,12 +32139,12 @@
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="89"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="90"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="85"/>
       <c r="E40" s="30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
@@ -33007,18 +33111,46 @@
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="A35:H35"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="I29:J29"/>
+  <mergeCells count="71">
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:G23"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="E14:J20"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:G13"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A15:D20"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="A39:D40"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="F26:G26"/>
@@ -33035,44 +33167,22 @@
     <mergeCell ref="E36:J36"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="E14:J20"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:G13"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="A15:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:G23"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F30:G30"/>
   </mergeCells>
   <conditionalFormatting sqref="A35">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
@@ -33106,8 +33216,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="150" t="s">
-        <v>84</v>
+      <c r="A1" s="139" t="s">
+        <v>82</v>
       </c>
       <c r="B1" s="79"/>
       <c r="C1" s="79"/>
@@ -33120,79 +33230,79 @@
       <c r="J1" s="79"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="s">
-        <v>85</v>
+      <c r="A2" s="111" t="s">
+        <v>83</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="85" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="151" t="s">
+      <c r="H2" s="92"/>
+      <c r="I2" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="82"/>
+      <c r="J2" s="92"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="152" t="s">
-        <v>86</v>
+      <c r="A3" s="140" t="s">
+        <v>84</v>
       </c>
       <c r="B3" s="79"/>
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
       <c r="E3" s="79"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="110" t="str">
+      <c r="F3" s="94"/>
+      <c r="G3" s="114" t="str">
         <f>Invoice!E4</f>
         <v>BK019/25-26</v>
       </c>
-      <c r="H3" s="90"/>
-      <c r="I3" s="111">
+      <c r="H3" s="85"/>
+      <c r="I3" s="115">
         <f>Invoice!H4</f>
         <v>45874</v>
       </c>
-      <c r="J3" s="113"/>
+      <c r="J3" s="117"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="151" t="s">
+      <c r="G4" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="82"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="92"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="108" t="str">
+      <c r="G5" s="86" t="str">
         <f>'input data'!B5</f>
         <v>AD2403250650768</v>
       </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="90"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="153" t="s">
-        <v>89</v>
+      <c r="A6" s="134" t="s">
+        <v>87</v>
       </c>
       <c r="B6" s="79"/>
       <c r="C6" s="79"/>
@@ -33206,7 +33316,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -33214,7 +33324,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="20"/>
       <c r="G7" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
@@ -33222,7 +33332,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -33230,7 +33340,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="20"/>
       <c r="G8" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H8" s="37"/>
       <c r="I8" s="37"/>
@@ -33246,7 +33356,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="20"/>
       <c r="G9" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
@@ -33267,23 +33377,23 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="154" t="s">
+      <c r="A11" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
       <c r="F11" s="18"/>
       <c r="G11" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="155" t="str">
+      <c r="A12" s="136" t="str">
         <f>'input data'!B6</f>
         <v>To the Order</v>
       </c>
@@ -33298,11 +33408,11 @@
       <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="89"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
       <c r="F13" s="29"/>
       <c r="G13" s="19"/>
       <c r="H13" s="4"/>
@@ -33310,21 +33420,21 @@
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="154" t="s">
+      <c r="A14" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="82"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="19"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="104" t="str">
+      <c r="A15" s="125" t="str">
         <f>Invoice!A15</f>
         <v>KGM STONE COMPANY LIMITED
 Lot F12 Dien Bien Phu, Quy Nhon Dong Ward, Gia Lai Province, Vietnam
@@ -33336,186 +33446,186 @@
       <c r="C15" s="79"/>
       <c r="D15" s="79"/>
       <c r="E15" s="79"/>
-      <c r="F15" s="84"/>
+      <c r="F15" s="94"/>
       <c r="G15" s="19"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="99"/>
+      <c r="A16" s="93"/>
       <c r="B16" s="79"/>
       <c r="C16" s="79"/>
       <c r="D16" s="79"/>
       <c r="E16" s="79"/>
-      <c r="F16" s="84"/>
+      <c r="F16" s="94"/>
       <c r="G16" s="19"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="99"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="79"/>
       <c r="C17" s="79"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
-      <c r="F17" s="84"/>
+      <c r="F17" s="94"/>
       <c r="G17" s="19"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="99"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="79"/>
       <c r="C18" s="79"/>
       <c r="D18" s="79"/>
       <c r="E18" s="79"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="147" t="s">
-        <v>96</v>
+      <c r="F18" s="94"/>
+      <c r="G18" s="133" t="s">
+        <v>94</v>
       </c>
-      <c r="H18" s="82"/>
-      <c r="I18" s="148" t="s">
-        <v>97</v>
+      <c r="H18" s="92"/>
+      <c r="I18" s="142" t="s">
+        <v>95</v>
       </c>
-      <c r="J18" s="82"/>
+      <c r="J18" s="92"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="99"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="79"/>
       <c r="C19" s="79"/>
       <c r="D19" s="79"/>
       <c r="E19" s="79"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="90"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="85"/>
     </row>
     <row r="20" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="149" t="s">
+      <c r="A20" s="102"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="90"/>
-      <c r="I20" s="149" t="str">
+      <c r="H20" s="85"/>
+      <c r="I20" s="143" t="str">
         <f>Invoice!H22</f>
         <v>VIETNAM</v>
       </c>
-      <c r="J20" s="90"/>
+      <c r="J20" s="85"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="145" t="s">
+      <c r="A21" s="137" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="91"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="91"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="145" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="156" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="97"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="108" t="str">
+      <c r="A22" s="84"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="86" t="str">
         <f>Invoice!C22</f>
         <v>CHENNAI</v>
       </c>
-      <c r="E22" s="92"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="146" t="str">
+      <c r="E22" s="87"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="141" t="str">
         <f>'input data'!B16</f>
         <v>CNF</v>
       </c>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="90"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="85"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="145" t="s">
-        <v>101</v>
+      <c r="A23" s="137" t="s">
+        <v>99</v>
       </c>
-      <c r="B23" s="86"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="145" t="s">
-        <v>102</v>
+      <c r="B23" s="91"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="137" t="s">
+        <v>100</v>
       </c>
-      <c r="E23" s="86"/>
-      <c r="F23" s="82"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="92"/>
       <c r="G23" s="41"/>
       <c r="H23" s="42"/>
       <c r="I23" s="42"/>
       <c r="J23" s="43"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="106"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="108" t="str">
+      <c r="A24" s="84"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86" t="str">
         <f>Invoice!C25</f>
         <v>CHENNAI</v>
       </c>
-      <c r="E24" s="92"/>
-      <c r="F24" s="90"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="30"/>
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
       <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="145" t="s">
+      <c r="A25" s="137" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="145" t="s">
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="86"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="135" t="s">
-        <v>103</v>
+      <c r="E25" s="91"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="155" t="s">
+        <v>101</v>
       </c>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="97"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="93" t="str">
+      <c r="A26" s="131" t="str">
         <f>Invoice!E25</f>
         <v>QUY NHON</v>
       </c>
       <c r="B26" s="79"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="93" t="str">
+      <c r="C26" s="94"/>
+      <c r="D26" s="131" t="str">
         <f>Invoice!H25</f>
         <v>QUY NHON</v>
       </c>
       <c r="E26" s="79"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="147" t="str">
+      <c r="F26" s="94"/>
+      <c r="G26" s="133" t="str">
         <f>'input data'!B17</f>
         <v>100% Against Documents</v>
       </c>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="82"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="92"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
@@ -33533,71 +33643,71 @@
       <c r="A28" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="108" t="s">
-        <v>104</v>
+      <c r="B28" s="86" t="s">
+        <v>102</v>
       </c>
-      <c r="C28" s="90"/>
-      <c r="D28" s="108" t="s">
+      <c r="C28" s="85"/>
+      <c r="D28" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
       <c r="G28" s="47"/>
       <c r="H28" s="48"/>
-      <c r="I28" s="108" t="s">
+      <c r="I28" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="J28" s="90"/>
+      <c r="J28" s="85"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27">
         <v>1</v>
       </c>
-      <c r="B29" s="115">
+      <c r="B29" s="95">
         <f>Invoice!E28</f>
         <v>68022390</v>
       </c>
-      <c r="C29" s="96"/>
-      <c r="D29" s="133" t="str">
+      <c r="C29" s="97"/>
+      <c r="D29" s="153" t="str">
         <f>Invoice!B28</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="134">
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="154">
         <f>Invoice!F28</f>
         <v>298.88</v>
       </c>
-      <c r="J29" s="96"/>
-    </row>
-    <row r="30" spans="1:10" s="77" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="97"/>
+    </row>
+    <row r="30" spans="1:10" s="76" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="27">
         <v>2</v>
       </c>
-      <c r="B30" s="115">
+      <c r="B30" s="95">
         <f>Invoice!E29</f>
         <v>68022390</v>
       </c>
-      <c r="C30" s="96"/>
-      <c r="D30" s="133" t="str">
+      <c r="C30" s="97"/>
+      <c r="D30" s="153" t="str">
         <f>Invoice!B29</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="134">
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="154">
         <f>Invoice!F29</f>
         <v>124.29</v>
       </c>
-      <c r="J30" s="96"/>
+      <c r="J30" s="97"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
@@ -33610,7 +33720,7 @@
         <f>I29+I30</f>
         <v>423.17</v>
       </c>
-      <c r="J31" s="96"/>
+      <c r="J31" s="97"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
@@ -33625,14 +33735,14 @@
       <c r="J32" s="33"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="93" t="s">
-        <v>106</v>
+      <c r="A33" s="131" t="s">
+        <v>104</v>
       </c>
       <c r="B33" s="79"/>
       <c r="C33" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="118" t="s">
+      <c r="D33" s="106" t="s">
         <v>73</v>
       </c>
       <c r="E33" s="79"/>
@@ -33645,7 +33755,7 @@
       <c r="J33" s="33"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="105" t="str">
+      <c r="A34" s="107" t="str">
         <f>Invoice!A31</f>
         <v>CSNU2182753</v>
       </c>
@@ -33654,12 +33764,12 @@
         <f>'input data'!B25</f>
         <v>385</v>
       </c>
-      <c r="D34" s="142" t="s">
-        <v>107</v>
+      <c r="D34" s="151" t="s">
+        <v>105</v>
       </c>
       <c r="E34" s="79"/>
       <c r="F34" s="50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G34" s="50"/>
       <c r="H34" s="4"/>
@@ -33680,7 +33790,7 @@
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B36" s="51"/>
       <c r="C36" s="51" t="str">
@@ -33697,7 +33807,7 @@
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B37" s="51"/>
       <c r="C37" s="51"/>
@@ -33722,64 +33832,64 @@
       <c r="J38" s="55"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="102" t="s">
-        <v>111</v>
+      <c r="A39" s="111" t="s">
+        <v>109</v>
       </c>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="102" t="s">
-        <v>79</v>
+      <c r="B39" s="91"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="111" t="s">
+        <v>77</v>
       </c>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
-      <c r="J39" s="82"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="92"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="143" t="s">
-        <v>112</v>
+      <c r="A40" s="152" t="s">
+        <v>110</v>
       </c>
       <c r="B40" s="79"/>
       <c r="C40" s="79"/>
       <c r="D40" s="79"/>
       <c r="E40" s="79"/>
-      <c r="F40" s="84"/>
+      <c r="F40" s="94"/>
       <c r="G40" s="19"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="136" t="s">
-        <v>113</v>
+      <c r="A41" s="145" t="s">
+        <v>111</v>
       </c>
-      <c r="B41" s="137"/>
-      <c r="C41" s="137"/>
-      <c r="D41" s="137"/>
-      <c r="E41" s="137"/>
-      <c r="F41" s="138"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="147"/>
       <c r="G41" s="19"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="20"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="139" t="s">
-        <v>114</v>
+      <c r="A42" s="148" t="s">
+        <v>112</v>
       </c>
-      <c r="B42" s="117"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="140"/>
-      <c r="G42" s="141" t="s">
-        <v>115</v>
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="150" t="s">
+        <v>113</v>
       </c>
-      <c r="H42" s="92"/>
-      <c r="I42" s="92"/>
-      <c r="J42" s="90"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="85"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34740,6 +34850,44 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:J26"/>
@@ -34756,44 +34904,6 @@
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="G21:J21"/>
     <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="I29:J29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -34824,59 +34934,59 @@
   <sheetData>
     <row r="1" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="56"/>
-      <c r="B1" s="175" t="s">
+      <c r="B1" s="158" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="177"/>
-      <c r="R1" s="181"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="160"/>
+      <c r="R1" s="164"/>
       <c r="S1" s="79"/>
       <c r="T1" s="79"/>
       <c r="U1" s="79"/>
       <c r="V1" s="79"/>
-      <c r="W1" s="166"/>
+      <c r="W1" s="165"/>
       <c r="X1" s="79"/>
       <c r="Y1" s="79"/>
     </row>
     <row r="2" spans="1:25" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="56"/>
-      <c r="B2" s="178"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="180"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="163"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="57"/>
-      <c r="B3" s="182" t="s">
-        <v>116</v>
+      <c r="B3" s="166" t="s">
+        <v>114</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="82"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="92"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="57"/>
-      <c r="B4" s="183" t="s">
-        <v>117</v>
+      <c r="B4" s="167" t="s">
+        <v>115</v>
       </c>
       <c r="C4" s="79"/>
       <c r="D4" s="79"/>
@@ -34886,22 +34996,22 @@
       <c r="H4" s="79"/>
       <c r="I4" s="79"/>
       <c r="J4" s="79"/>
-      <c r="K4" s="84"/>
+      <c r="K4" s="94"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="50"/>
-      <c r="B5" s="106" t="s">
-        <v>118</v>
+      <c r="B5" s="84" t="s">
+        <v>116</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="90"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="85"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -34918,8 +35028,8 @@
     </row>
     <row r="7" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="58"/>
-      <c r="B7" s="184" t="s">
-        <v>119</v>
+      <c r="B7" s="168" t="s">
+        <v>117</v>
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="79"/>
@@ -34929,7 +35039,7 @@
       <c r="H7" s="79"/>
       <c r="I7" s="79"/>
       <c r="J7" s="79"/>
-      <c r="K7" s="84"/>
+      <c r="K7" s="94"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -34947,7 +35057,7 @@
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C9" s="67">
         <v>45874</v>
@@ -34964,10 +35074,10 @@
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -34994,7 +35104,7 @@
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -35008,8 +35118,8 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="153" t="s">
-        <v>157</v>
+      <c r="B13" s="134" t="s">
+        <v>155</v>
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="79"/>
@@ -35023,8 +35133,8 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="60"/>
-      <c r="B14" s="104" t="s">
-        <v>158</v>
+      <c r="B14" s="125" t="s">
+        <v>156</v>
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="79"/>
@@ -35038,7 +35148,7 @@
     </row>
     <row r="15" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="60"/>
-      <c r="B15" s="99"/>
+      <c r="B15" s="93"/>
       <c r="C15" s="79"/>
       <c r="D15" s="79"/>
       <c r="E15" s="79"/>
@@ -35052,7 +35162,7 @@
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -35079,135 +35189,135 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="51"/>
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="124" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="119"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="169"/>
+      <c r="F18" s="124" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="97"/>
+      <c r="H18" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="185"/>
-      <c r="F18" s="103" t="s">
+      <c r="I18" s="97"/>
+      <c r="J18" s="124" t="s">
         <v>125</v>
       </c>
-      <c r="G18" s="96"/>
-      <c r="H18" s="103" t="s">
-        <v>126</v>
-      </c>
-      <c r="I18" s="96"/>
-      <c r="J18" s="103" t="s">
-        <v>127</v>
-      </c>
-      <c r="K18" s="96"/>
+      <c r="K18" s="97"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="103">
+      <c r="C19" s="176"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="124">
         <v>153</v>
       </c>
-      <c r="G19" s="96"/>
-      <c r="H19" s="164">
+      <c r="G19" s="97"/>
+      <c r="H19" s="156">
         <v>1337</v>
       </c>
-      <c r="I19" s="96"/>
-      <c r="J19" s="169">
+      <c r="I19" s="97"/>
+      <c r="J19" s="157">
         <f>F19*H19</f>
         <v>204561</v>
       </c>
-      <c r="K19" s="96"/>
-    </row>
-    <row r="20" spans="1:11" s="73" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="97"/>
+    </row>
+    <row r="20" spans="1:11" s="72" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="103">
+      <c r="C20" s="176"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="177"/>
+      <c r="F20" s="124">
         <v>87</v>
       </c>
-      <c r="G20" s="96"/>
-      <c r="H20" s="164">
+      <c r="G20" s="97"/>
+      <c r="H20" s="156">
         <v>3216</v>
       </c>
-      <c r="I20" s="96"/>
-      <c r="J20" s="169">
+      <c r="I20" s="97"/>
+      <c r="J20" s="157">
         <f>F20*H20</f>
         <v>279792</v>
       </c>
-      <c r="K20" s="96"/>
+      <c r="K20" s="97"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="50"/>
-      <c r="B21" s="105"/>
+      <c r="B21" s="107"/>
       <c r="C21" s="79"/>
       <c r="D21" s="79"/>
       <c r="E21" s="79"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="157" t="s">
-        <v>152</v>
+      <c r="F21" s="165"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="180" t="s">
+        <v>150</v>
       </c>
-      <c r="I21" s="158"/>
-      <c r="J21" s="173">
+      <c r="I21" s="181"/>
+      <c r="J21" s="178">
         <f>(J19+J20)*0.001</f>
         <v>484.35300000000001</v>
       </c>
-      <c r="K21" s="174"/>
+      <c r="K21" s="179"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="141"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
       <c r="F22" s="32"/>
       <c r="G22" s="61"/>
-      <c r="H22" s="160" t="s">
-        <v>105</v>
+      <c r="H22" s="183" t="s">
+        <v>103</v>
       </c>
-      <c r="I22" s="161"/>
-      <c r="J22" s="162">
+      <c r="I22" s="184"/>
+      <c r="J22" s="170">
         <f>SUM(J19:K21)</f>
         <v>484837.353</v>
       </c>
-      <c r="K22" s="163"/>
+      <c r="K22" s="171"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="50"/>
-      <c r="B23" s="105"/>
+      <c r="B23" s="107"/>
       <c r="C23" s="79"/>
       <c r="D23" s="79"/>
       <c r="E23" s="79"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="165"/>
+      <c r="H23" s="172"/>
       <c r="I23" s="79"/>
-      <c r="J23" s="166"/>
-      <c r="K23" s="84"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="94"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="51"/>
-      <c r="B24" s="167" t="s">
-        <v>128</v>
+      <c r="B24" s="173" t="s">
+        <v>126</v>
       </c>
-      <c r="C24" s="95"/>
+      <c r="C24" s="96"/>
       <c r="D24" s="45"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45"/>
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
       <c r="I24" s="45"/>
-      <c r="J24" s="168">
+      <c r="J24" s="174">
         <f>J22</f>
         <v>484837.353</v>
       </c>
-      <c r="K24" s="96"/>
+      <c r="K24" s="97"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
@@ -35224,8 +35334,8 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="62"/>
-      <c r="B26" s="159" t="s">
-        <v>129</v>
+      <c r="B26" s="182" t="s">
+        <v>127</v>
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="4"/>
@@ -35240,11 +35350,11 @@
     <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -35257,7 +35367,7 @@
     <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -35272,7 +35382,7 @@
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -35287,11 +35397,11 @@
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -35304,7 +35414,7 @@
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -35319,7 +35429,7 @@
     <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -35334,11 +35444,11 @@
     <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -35353,7 +35463,7 @@
       <c r="B34" s="19"/>
       <c r="C34" s="4"/>
       <c r="D34" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -35368,7 +35478,7 @@
       <c r="B35" s="19"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -35380,8 +35490,8 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="63"/>
-      <c r="B36" s="152" t="s">
-        <v>140</v>
+      <c r="B36" s="140" t="s">
+        <v>138</v>
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="79"/>
@@ -35395,8 +35505,8 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="63"/>
-      <c r="B37" s="152" t="s">
-        <v>141</v>
+      <c r="B37" s="140" t="s">
+        <v>139</v>
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="79"/>
@@ -35411,7 +35521,7 @@
     <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
       <c r="B38" s="36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C38" s="64" t="str">
         <f>'input data'!B5</f>
@@ -35429,7 +35539,7 @@
     <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -36438,21 +36548,11 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B1:K2"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G15"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="H22:I22"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
@@ -36469,11 +36569,21 @@
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G15"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="78" orientation="portrait" r:id="rId1"/>
